--- a/data/n2v/tables/model-1-1325-20230828-8.xlsx
+++ b/data/n2v/tables/model-1-1325-20230828-8.xlsx
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
